--- a/medicine/Médecine vétérinaire/Ascaris_(genre)/Ascaris_(genre).xlsx
+++ b/medicine/Médecine vétérinaire/Ascaris_(genre)/Ascaris_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ascaris est un genre de nématodes. Ses espèces sont des parasites de l'humain, du cheval, du chien, du chat ou du porc, et peuvent atteindre une trentaine de cm de long chez le porc et jusqu'à 50 cm de long chez l'humain.
 </t>
@@ -511,7 +523,9 @@
           <t>L'ascaris Ascaris lumbricoides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'ascaris est un ver de l’intestin grêle, de couleur jaunâtre et d'une longueur de 6 à 12 cm. Il se fixe grâce à des ventouses et utilise les nutriments ingérés par l’individu hôte pour se nourrir. La contamination se fait par l’ingestion d’excrément, de terre ou de mammifère contaminé par le ver. Le cycle de l’ascaris se fait en environ 15 jours. Il faut 4 à 5 semaines pour que l’adulte se reproduise. Les syndromes sont :
 ballonnement (ventre dur) ;
@@ -547,9 +561,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (17 mai 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (17 mai 2021) :
 Ascaris acanthocaudata Cobbold, 1858
 Ascaris acerinae Linstow, 1878
 Ascaris aculeati Linstow, 1884
